--- a/economic_game_with_passwords.xlsx
+++ b/economic_game_with_passwords.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,290 +436,752 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>lastname</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>firstname</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>middlename</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>password</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sent</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Павлов</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Павел</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Павлович</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10Б</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SmLUu</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Александров</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>7А</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>ZytlZ</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Иван</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Иванович</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>11А</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>i2i29</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Антонов</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Антон</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Антонович</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>9Б</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>mX_ie</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Петр</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Петрович</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5Б</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>zwzBr</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Валентинова</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Валентина</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Валентиновна</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>05h-G</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Александров</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7А</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>gBsCE</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Васильева</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Павловна</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>sdelorec@yandex.ru</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>pQq4y</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Дмитров</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Дмитрий</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Дмитриевич</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>mwh7T</t>
-        </is>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>WU83f</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Антонов</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Антон</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Антонович</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Егоров</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Егорович</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>unKQh</t>
-        </is>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>pw112</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Егоров</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Егор</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Егорович</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9Б</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>MjgbO</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Иванович</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3gBrw</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Валентинова</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Валентина</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Валентиновна</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B2UGr</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Игнатов</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Игнат</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Игнатьевич</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Gy3l8</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Игнатов</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Игнат</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Игнатьевич</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>dgUXR</t>
-        </is>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Павлов</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Павлович</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>10Б</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>RfYul</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Петр</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Петрович</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>5Б</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>jYgNd</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Сагайдак</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Полина</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Тарасовна</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>12Б</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>polina.sagaidac@mail.ru</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>k9jAg</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Сагайдак</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Илья</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Тарасович</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>12А</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>m.s.v.inkognito@yandex.ru</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>RQuxH</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Симошин</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Михаил</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>9А</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>mih_z8@mail.ru</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Pvb0U</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/economic_game_with_passwords.xlsx
+++ b/economic_game_with_passwords.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,65 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.5</t>
+          <t>lastname</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.4</t>
+          <t>firstname</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.3</t>
+          <t>middlename</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.2</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>password</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lastname</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>firstname</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>middlename</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>sent</t>
         </is>
@@ -504,51 +474,33 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Александров</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>7А</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>ZytlZ</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>tlYGS</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -556,207 +508,135 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Антонов</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Антон</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Антонович</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>mX_ie</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Gy3l8</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
         <v>7</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Валентинова</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Валентина</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Валентиновна</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>05h-G</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1CSBk</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
         <v>12</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Васильева</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Татьяна</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Павловна</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>sdelorec@yandex.ru</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>pQq4y</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A6bYI</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
         <v>6</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Дмитров</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Дмитрий</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Дмитриевич</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>WU83f</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C5v-X</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -764,424 +644,280 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Егоров</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Егор</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Егорович</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>pw112</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>E6c4N</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Иванов</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Иван</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Иванович</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>3gBrw</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>lgAsC</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-      <c r="G9" t="n">
         <v>8</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Игнатов</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Игнат</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Игнатьевич</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Gy3l8</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Z0s2A</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" t="n">
         <v>4</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Павлов</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Павел</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Павлович</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>RfYul</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>raELW</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="n">
         <v>3</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Петров</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Петр</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Петрович</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>5Б</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>jYgNd</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1_cmW</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" t="n">
         <v>9</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Сагайдак</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Полина</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Тарасовна</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>12Б</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>polina.sagaidac@mail.ru</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>k9jAg</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ioFcG</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" t="n">
-        <v>11</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Сагайдак</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Илья</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Тарасович</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>12А</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>m.s.v.inkognito@yandex.ru</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>RQuxH</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>KvTMW</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G14" t="n">
         <v>10</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Симошин</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Михаил</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Николаевич</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>mih_z8@mail.ru</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Pvb0U</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>PhO7P</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/economic_game_with_passwords.xlsx
+++ b/economic_game_with_passwords.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lastname</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>firstname</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>middlename</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>sent</t>
         </is>
@@ -474,33 +479,36 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Александров</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7А</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>tlYGS</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -508,135 +516,147 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Антонов</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Антон</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Антонович</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gy3l8</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Валентинова</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Валентина</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Валентиновна</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1CSBk</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Васильева</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Татьяна</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Павловна</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>sdelorec@yandex.ru</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>A6bYI</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Дмитров</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Дмитрий</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Дмитриевич</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C5v-X</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -644,280 +664,304 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Егоров</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Егор</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Егорович</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>E6c4N</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Иванов</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Иван</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Иванович</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>lgAsC</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Игнатов</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Игнат</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Игнатьевич</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Z0s2A</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>4</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Павлов</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Павел</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Павлович</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>raELW</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Петров</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Петр</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Петрович</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>5Б</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1_cmW</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>9</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Сагайдак</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Полина</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Тарасовна</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>12Б</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>polina.sagaidac@mail.ru</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>ioFcG</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Сагайдак</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Илья</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Тарасович</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>12А</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>m.s.v.inkognito@yandex.ru</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>KvTMW</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>10</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Симошин</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Михаил</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Николаевич</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>mih_z8@mail.ru</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>PhO7P</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/economic_game_with_passwords.xlsx
+++ b/economic_game_with_passwords.xlsx
@@ -505,7 +505,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>tlYGS</t>
+          <t>K3mjs</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -542,7 +542,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gy3l8</t>
+          <t>kiz1I</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -575,7 +575,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1CSBk</t>
+          <t>NTOGu</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A6bYI</t>
+          <t>DJIUF</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -653,7 +653,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>C5v-X</t>
+          <t>I0oVm</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -690,7 +690,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E6c4N</t>
+          <t>K1rfs</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -727,7 +727,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>lgAsC</t>
+          <t>HJZxQ</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -760,7 +760,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Z0s2A</t>
+          <t>kEzuT</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -797,7 +797,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>raELW</t>
+          <t>Alz89</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -834,7 +834,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1_cmW</t>
+          <t>OjxK9</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -875,7 +875,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ioFcG</t>
+          <t>tL0WP</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>KvTMW</t>
+          <t>_li9K</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -957,7 +957,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PhO7P</t>
+          <t>aNCVm</t>
         </is>
       </c>
       <c r="I14" t="n">

--- a/economic_game_with_passwords.xlsx
+++ b/economic_game_with_passwords.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>lastname</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>lastname</t>
+          <t>firstname</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>firstname</t>
+          <t>middlename</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>middlename</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>password</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>sent</t>
         </is>
@@ -479,12 +474,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Александров</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Александров</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,21 +491,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>7А</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>K3mjs</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,147 +508,135 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Антонов</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Антонов</t>
+          <t>Антон</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Антон</t>
+          <t>Антонович</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Антонович</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>9Б</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>kiz1I</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
         <v>7</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Валентинова</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Валентинова</t>
+          <t>Валентина</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Валентина</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Валентиновна</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>NTOGu</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
         <v>12</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Васильева</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Васильева</t>
+          <t>Татьяна</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Павловна</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Павловна</t>
+          <t>11А</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11А</t>
+          <t>sdelorec@yandex.ru</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sdelorec@yandex.ru</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>DJIUF</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
         <v>6</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Дмитров</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Дмитров</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Дмитриевич</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Дмитриевич</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>8А</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>I0oVm</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="H6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -664,304 +644,280 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Егоров</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Егоров</t>
+          <t>Егор</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Егор</t>
+          <t>Егорович</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Егорович</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>9Б</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>K1rfs</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="H7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
         <v>2</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Иванов</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>Иванович</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Иванович</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>11А</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>HJZxQ</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
         <v>8</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Игнатов</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Игнатов</t>
+          <t>Игнат</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Игнат</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Игнатьевич</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>kEzuT</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
         <v>4</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Павлов</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Павлов</t>
+          <t>Павел</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Павел</t>
+          <t>Павлович</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Павлович</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>10Б</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Alz89</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
         <v>3</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Петр</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Петр</t>
+          <t>Петрович</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Петрович</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>5Б</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>OjxK9</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="H11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
         <v>9</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Сагайдак</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Сагайдак</t>
+          <t>Полина</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Полина</t>
+          <t>Тарасовна</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Тарасовна</t>
+          <t>12Б</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12Б</t>
+          <t>polina.sagaidac@mail.ru</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>polina.sagaidac@mail.ru</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>tL0WP</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Сагайдак</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Сагайдак</t>
+          <t>Илья</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Илья</t>
+          <t>Тарасович</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Тарасович</t>
+          <t>12А</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12А</t>
+          <t>m.s.v.inkognito@yandex.ru</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>m.s.v.inkognito@yandex.ru</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t>_li9K</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
+      <c r="H13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
         <v>10</v>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Симошин</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Симошин</t>
+          <t>Михаил</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Михаил</t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>9А</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9А</t>
+          <t>mih_z8@mail.ru</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>mih_z8@mail.ru</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
           <t>aNCVm</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
+      <c r="H14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/economic_game_with_passwords.xlsx
+++ b/economic_game_with_passwords.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>company_money</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>password</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>sent</t>
         </is>
@@ -495,12 +505,14 @@
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>K3mjs</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>UujI3Hy7ca</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -529,18 +541,20 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>kiz1I</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3iGLJg2Udy</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -561,16 +575,24 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NTOGu</t>
+          <t>Кругосвет</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>QkKVBGUQsX</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -597,12 +619,14 @@
           <t>sdelorec@yandex.ru</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>DJIUF</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A4C6WfwcTi</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -631,12 +655,14 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>I0oVm</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0tQghH7QqW</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -665,12 +691,14 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>K1rfs</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0azTX5fu9m</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -699,18 +727,20 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>HJZxQ</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SJWEoVw9HQ</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -731,10 +761,18 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>kEzuT</t>
+          <t>Цифромир</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>lxB0zoq4Z7</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -763,12 +801,14 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Alz89</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>i8Lyg2zHzy</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -797,18 +837,20 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>OjxK9</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>8RnopF5rA4</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -835,18 +877,20 @@
           <t>polina.sagaidac@mail.ru</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>tL0WP</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Vz6bk5Bvmg</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -873,18 +917,20 @@
           <t>m.s.v.inkognito@yandex.ru</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>_li9K</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>paaLhtc3bx</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -911,12 +957,14 @@
           <t>mih_z8@mail.ru</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>aNCVm</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>bybaerFVaa</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
